--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12285"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>./sampledata/case1/points.txt</t>
   </si>
   <si>
-    <t>[600]</t>
+    <t>[60000]</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
